--- a/opm_hero_property/heroes/104.xlsx
+++ b/opm_hero_property/heroes/104.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>104</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5366610.07817968</v>
+        <v>6401850.41949168</v>
       </c>
       <c r="U2" t="n">
-        <v>948610.70594174</v>
+        <v>1103724.55043774</v>
       </c>
       <c r="V2" t="n">
-        <v>738176.99982208</v>
+        <v>857764.6629260801</v>
       </c>
       <c r="W2" t="n">
         <v>4260</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11639001.01478</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>998068.2930277199</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2938676.0811824</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1862100.85</v>
+      </c>
+      <c r="AU2" t="n">
         <v>932447.7403469259</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16172411.69815465</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18965566.62933705</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>104</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>675905.50176136</v>
+        <v>792490.36118536</v>
       </c>
       <c r="U3" t="n">
-        <v>135485.02391238</v>
+        <v>152952.85746438</v>
       </c>
       <c r="V3" t="n">
-        <v>98187.81482623999</v>
+        <v>111935.57213824</v>
       </c>
       <c r="W3" t="n">
         <v>4260</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1318203.31846</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>114319.98551764</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>571875.8654768</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>210772.25</v>
+      </c>
+      <c r="AU3" t="n">
         <v>109163.798030022</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2191202.102007662</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2507364.617484462</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>104</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7988.718</v>
+        <v>8533.718000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1601.513</v>
+        <v>1682.513</v>
       </c>
       <c r="V4" t="n">
-        <v>537.0743</v>
+        <v>600.0743</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19390.684925</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23940.634925</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1466.15</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25406.784925</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>104</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>21665.2478</v>
+        <v>37691.2478</v>
       </c>
       <c r="U5" t="n">
-        <v>4008.2532</v>
+        <v>6409.2532</v>
       </c>
       <c r="V5" t="n">
-        <v>1624.608</v>
+        <v>3475.608</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49557.79088</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61546.14087999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43236.15</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104782.29088</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>104</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>61414.1804</v>
+        <v>130120.1804</v>
       </c>
       <c r="U6" t="n">
-        <v>10306.675</v>
+        <v>20600.675</v>
       </c>
       <c r="V6" t="n">
-        <v>5227.236</v>
+        <v>13163.236</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119146.2449</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>167559.3449</v>
+      <c r="AT6" t="n">
+        <v>185366.6</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>352925.9449</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>104</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>67888.09494119999</v>
+        <v>136594.0949412</v>
       </c>
       <c r="U7" t="n">
-        <v>13224.019075</v>
+        <v>23518.019075</v>
       </c>
       <c r="V7" t="n">
-        <v>6549.5627508</v>
+        <v>14485.5627508</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119146.2449</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>185366.6</v>
+      </c>
+      <c r="AU7" t="n">
         <v>34206.9674758</v>
       </c>
-      <c r="AS7" t="n">
-        <v>201949.3123758</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>387315.9123758</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>104</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>74363.0094824</v>
+        <v>143069.0094824</v>
       </c>
       <c r="U8" t="n">
-        <v>16171.29385</v>
+        <v>26465.29385</v>
       </c>
       <c r="V8" t="n">
-        <v>7891.0656816</v>
+        <v>15827.0656816</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119146.2449</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>316.784865</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>185366.6</v>
+      </c>
+      <c r="AU8" t="n">
         <v>68414.93495160001</v>
       </c>
-      <c r="AS8" t="n">
-        <v>236474.0647166</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>421840.6647166</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>104</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>266240.8064</v>
+        <v>466092.544464</v>
       </c>
       <c r="U9" t="n">
-        <v>41497.664</v>
+        <v>70877.49064</v>
       </c>
       <c r="V9" t="n">
-        <v>25288.3046</v>
+        <v>48142.479646</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>541779.8394500001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>710300.4394500001</v>
+        <v>44540.14839450001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>434346.9</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1244404.4878445</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>104</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>273203.2278192</v>
+        <v>531166.9152690977</v>
       </c>
       <c r="U10" t="n">
-        <v>44756.938632</v>
+        <v>83527.25682179201</v>
       </c>
       <c r="V10" t="n">
-        <v>26798.54489738</v>
+        <v>56043.66890236085</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>541779.8394500001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>1450.17478365</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44540.14839450001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>434346.9</v>
+      </c>
+      <c r="AU10" t="n">
         <v>36685.123306285</v>
       </c>
-      <c r="AS10" t="n">
-        <v>748435.7375399352</v>
+      <c r="AV10" t="n">
+        <v>254001.8975936023</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1442194.083528037</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>104</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>301056.913496</v>
+        <v>623696.6872880799</v>
       </c>
       <c r="U11" t="n">
-        <v>58549.621096</v>
+        <v>106527.163854496</v>
       </c>
       <c r="V11" t="n">
-        <v>33450.05297536</v>
+        <v>69940.90412574448</v>
       </c>
       <c r="W11" t="n">
-        <v>2740</v>
+        <v>2750</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA11" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>541779.8394500001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>16281.92262015</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44540.14839450001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>434346.9</v>
+      </c>
+      <c r="AU11" t="n">
         <v>183452.74159657</v>
       </c>
-      <c r="AS11" t="n">
-        <v>910035.1036667201</v>
+      <c r="AV11" t="n">
+        <v>423870.764545913</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1773662.316607133</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>104</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>301056.913496</v>
+        <v>706169.1892427598</v>
       </c>
       <c r="U12" t="n">
-        <v>59808.927656</v>
+        <v>117052.294136216</v>
       </c>
       <c r="V12" t="n">
-        <v>34460.92820536</v>
+        <v>81762.72158791713</v>
       </c>
       <c r="W12" t="n">
-        <v>2940</v>
+        <v>2960</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AA12" t="n">
-        <v>3780</v>
+        <v>3800</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>541779.8394500001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>31113.67045665</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44540.14839450001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>434346.9</v>
+      </c>
+      <c r="AU12" t="n">
         <v>183452.74159657</v>
       </c>
-      <c r="AS12" t="n">
-        <v>924866.8515032202</v>
+      <c r="AV12" t="n">
+        <v>632560.3680154537</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1997183.667913174</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>104</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>335084.62012768</v>
+        <v>836983.4937137051</v>
       </c>
       <c r="U13" t="n">
-        <v>76380.19999280002</v>
+        <v>146819.8271920888</v>
       </c>
       <c r="V13" t="n">
-        <v>42388.15352736</v>
+        <v>100876.3623734411</v>
       </c>
       <c r="W13" t="n">
-        <v>3140</v>
+        <v>3190</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA13" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>541779.8394500001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>45945.41829315</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44540.14839450001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>434346.9</v>
+      </c>
+      <c r="AU13" t="n">
         <v>362902.02511717</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1119147.88286032</v>
+      <c r="AV13" t="n">
+        <v>885083.0537315842</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2443987.384986404</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>104</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>301056.913496</v>
+        <v>934569.35483488</v>
       </c>
       <c r="U14" t="n">
-        <v>61068.23421600001</v>
+        <v>146055.230316544</v>
       </c>
       <c r="V14" t="n">
-        <v>35471.80343536</v>
+        <v>104110.0579649127</v>
       </c>
       <c r="W14" t="n">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA14" t="n">
-        <v>3720</v>
+        <v>3770</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>541779.8394500001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>45945.41829315</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44357.14839450001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>434346.9</v>
+      </c>
+      <c r="AU14" t="n">
         <v>183452.74159657</v>
       </c>
-      <c r="AS14" t="n">
-        <v>939515.5993397201</v>
+      <c r="AV14" t="n">
+        <v>1175436.229583061</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2554708.277317281</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>104</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>444921.7148384</v>
+        <v>1493159.830707619</v>
       </c>
       <c r="U15" t="n">
-        <v>87553.1067048</v>
+        <v>239941.508574376</v>
       </c>
       <c r="V15" t="n">
-        <v>57688.7243864</v>
+        <v>175666.5354404072</v>
       </c>
       <c r="W15" t="n">
-        <v>3220</v>
+        <v>3320</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AA15" t="n">
-        <v>3840</v>
+        <v>3940</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>833117.92224</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>71539.95174996</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128357.8584448</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>794710.45</v>
+      </c>
+      <c r="AU15" t="n">
         <v>230380.29233336</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1394239.31632332</v>
+      <c r="AV15" t="n">
+        <v>1967934.193885035</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4173529.818653155</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>104</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>452199.0558448</v>
+        <v>1528855.350644827</v>
       </c>
       <c r="U16" t="n">
-        <v>90828.13892919999</v>
+        <v>247868.0239786632</v>
       </c>
       <c r="V16" t="n">
-        <v>59171.54452056</v>
+        <v>180439.950617369</v>
       </c>
       <c r="W16" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA16" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>833117.92224</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>71539.95174996</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128540.8584448</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>794710.45</v>
+      </c>
+      <c r="AU16" t="n">
         <v>268781.57145954</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1432823.5954495</v>
+      <c r="AV16" t="n">
+        <v>2048568.528253175</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4292748.432147475</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>104</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1082222.74996832</v>
+        <v>2769699.638609495</v>
       </c>
       <c r="U17" t="n">
-        <v>199904.85028384</v>
+        <v>437983.8504953805</v>
       </c>
       <c r="V17" t="n">
-        <v>157811.0021</v>
+        <v>350290.7658352001</v>
       </c>
       <c r="W17" t="n">
-        <v>3620</v>
+        <v>3820</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA17" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1905543.21572</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>166273.63722548</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>761880.7286288</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1269758.6</v>
+      </c>
+      <c r="AU17" t="n">
         <v>355910.126056336</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3383385.479001816</v>
+      <c r="AV17" t="n">
+        <v>3093433.302949405</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7822766.110580022</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>104</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5366610.07817968</v>
+        <v>9612240.531644249</v>
       </c>
       <c r="U18" t="n">
-        <v>948610.70594174</v>
+        <v>1502507.647389393</v>
       </c>
       <c r="V18" t="n">
-        <v>738176.99982208</v>
+        <v>1182142.637151357</v>
       </c>
       <c r="W18" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA18" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11639001.01478</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>998068.2930277199</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2938676.0811824</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1862100.85</v>
+      </c>
+      <c r="AU18" t="n">
         <v>932447.7403469259</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16172411.69815465</v>
+      <c r="AV18" t="n">
+        <v>7829566.832914323</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26795133.46225137</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>104</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8757080.612979678</v>
+        <v>16486485.55446106</v>
       </c>
       <c r="U19" t="n">
-        <v>1515287.88750814</v>
+        <v>2644024.106678118</v>
       </c>
       <c r="V19" t="n">
-        <v>1192231.18350608</v>
+        <v>2098667.984723358</v>
       </c>
       <c r="W19" t="n">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA19" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18890683.19502</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>1616501.65657888</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6304149.329253001</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1862100.85</v>
+      </c>
+      <c r="AU19" t="n">
         <v>932447.7403469261</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26086145.3419458</v>
+      <c r="AV19" t="n">
+        <v>16036516.88150058</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46818241.80269938</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>104</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>241142.78591606</v>
+        <v>248879.78591606</v>
       </c>
       <c r="U20" t="n">
-        <v>42178.89406218</v>
+        <v>43337.89406218</v>
       </c>
       <c r="V20" t="n">
-        <v>23046.74540416</v>
+        <v>23958.74540416</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>567676.52949</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>1542.91385576</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20978.1</v>
+      </c>
+      <c r="AU20" t="n">
         <v>20106.297673262</v>
       </c>
-      <c r="AS20" t="n">
-        <v>669851.441019022</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>690829.5410190219</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>104</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>302250.65824624</v>
+        <v>318176.46025824</v>
       </c>
       <c r="U21" t="n">
-        <v>52436.92707372</v>
+        <v>54850.49314972</v>
       </c>
       <c r="V21" t="n">
-        <v>31973.8697586</v>
+        <v>33809.7107786</v>
       </c>
       <c r="W21" t="n">
         <v>1610</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>674259.38014</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>20548.00332486</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72699.9438014</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36401.15</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26587.372701998</v>
       </c>
-      <c r="AS21" t="n">
-        <v>855657.4561668581</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>898792.9499682582</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>104</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>409600.62562576</v>
+        <v>541088.5075895531</v>
       </c>
       <c r="U22" t="n">
-        <v>71112.98869001999</v>
+        <v>89984.75278222561</v>
       </c>
       <c r="V22" t="n">
-        <v>47897.92456646</v>
+        <v>62664.30378805065</v>
       </c>
       <c r="W22" t="n">
-        <v>2940</v>
+        <v>2990</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AA22" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>856115.47061</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>49878.81840099</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>104023.3047061</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49157.15</v>
+      </c>
+      <c r="AU22" t="n">
         <v>49554.974833053</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1188671.313844043</v>
+      <c r="AV22" t="n">
+        <v>289499.680018058</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1535881.048568201</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>104</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>456581.72790208</v>
+        <v>679957.7159311756</v>
       </c>
       <c r="U23" t="n">
-        <v>83310.70824788</v>
+        <v>119310.595785988</v>
       </c>
       <c r="V23" t="n">
-        <v>57610.40793904</v>
+        <v>83440.31530386672</v>
       </c>
       <c r="W23" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA23" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>935427.2918199999</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>80576.69537957999</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>169016.0458364</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>89952.25</v>
+      </c>
+      <c r="AU23" t="n">
         <v>65398.87326235199</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1376359.460461932</v>
+      <c r="AV23" t="n">
+        <v>514052.8835533942</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1999056.639851726</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>104</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>528910.64188</v>
+        <v>861784.47639288</v>
       </c>
       <c r="U24" t="n">
-        <v>100373.6206852</v>
+        <v>154369.9021381244</v>
       </c>
       <c r="V24" t="n">
-        <v>70952.60717557001</v>
+        <v>110372.5681922873</v>
       </c>
       <c r="W24" t="n">
-        <v>3620</v>
+        <v>3820</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA24" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1060189.905665</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>91531.59581163501</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>298085.7962266</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>143723.65</v>
+      </c>
+      <c r="AU24" t="n">
         <v>78997.41439077251</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1643872.115867408</v>
+      <c r="AV24" t="n">
+        <v>748414.7061575829</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2578385.068251591</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>104</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>675905.50176136</v>
+        <v>1482872.889443816</v>
       </c>
       <c r="U25" t="n">
-        <v>135485.02391238</v>
+        <v>263238.3887554592</v>
       </c>
       <c r="V25" t="n">
-        <v>98187.81482623999</v>
+        <v>194181.0065954803</v>
       </c>
       <c r="W25" t="n">
-        <v>4260</v>
+        <v>4460</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AA25" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1318203.31846</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>114319.98551764</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>571875.8654768</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>210772.25</v>
+      </c>
+      <c r="AU25" t="n">
         <v>109163.798030022</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2191202.102007662</v>
+      <c r="AV25" t="n">
+        <v>1926663.942296034</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4434028.559780495</v>
       </c>
     </row>
   </sheetData>
